--- a/data/Backend_data.xlsx
+++ b/data/Backend_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\My Projects\ai_automation_index\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47F9B79B-1792-4C38-A6E3-02D0F92625CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452BA0A3-14C0-4EEE-BDF6-3C54F9E0B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="178">
   <si>
     <t>Key</t>
   </si>
@@ -554,12 +554,18 @@
   </si>
   <si>
     <t>Physical office and utility costs</t>
+  </si>
+  <si>
+    <t>Cost Refined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -611,7 +617,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -832,15 +838,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -895,10 +904,10 @@
         <v>5.5E-2</v>
       </c>
       <c r="I2" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>3.0476190476190474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -924,10 +933,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>3.0952380952380953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -953,10 +962,10 @@
         <v>0.03</v>
       </c>
       <c r="I4" s="4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,10 +991,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I5" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.2380952380952377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1011,10 +1020,10 @@
         <v>0.09</v>
       </c>
       <c r="I6" s="4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3.0476190476190474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -1040,10 +1049,10 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>2.5238095238095242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1069,10 +1078,10 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="I8" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>3.1428571428571423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1098,10 +1107,10 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I9" s="4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1127,10 +1136,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I10" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3.1904761904761907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1156,10 +1165,10 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>3.0952380952380953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1185,10 +1194,10 @@
         <v>1.6E-2</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>2.9523809523809521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1214,10 +1223,10 @@
         <v>0.01</v>
       </c>
       <c r="I13" s="4">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>3.2380952380952381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -1243,10 +1252,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I14" s="4">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2.8095238095238098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>79</v>
       </c>
@@ -1272,10 +1281,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I15" s="4">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>3.4285714285714279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I16" s="4">
-        <v>2.7</v>
+        <v>2.7619047619047623</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1330,7 +1339,7 @@
         <v>0.02</v>
       </c>
       <c r="I17" s="4">
-        <v>3.2</v>
+        <v>3.2857142857142856</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1359,7 +1368,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="I18" s="4">
-        <v>2.9</v>
+        <v>3.0476190476190479</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1388,7 +1397,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="I19" s="4">
-        <v>2.8</v>
+        <v>2.9523809523809526</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1417,7 +1426,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I20" s="4">
-        <v>2.8</v>
+        <v>2.7142857142857144</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1446,7 +1455,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="I21" s="4">
-        <v>2.5</v>
+        <v>2.9047619047619051</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1475,7 +1484,7 @@
         <v>5.5E-2</v>
       </c>
       <c r="I22" s="4">
-        <v>2.8</v>
+        <v>3.2380952380952381</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1504,7 +1513,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I23" s="4">
-        <v>2.7</v>
+        <v>2.9047619047619051</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1533,7 +1542,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I24" s="4">
-        <v>2.8</v>
+        <v>2.6111111111111112</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1562,7 +1571,7 @@
         <v>0.01</v>
       </c>
       <c r="I25" s="4">
-        <v>2.6</v>
+        <v>2.7142857142857149</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1591,7 +1600,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="I26" s="4">
-        <v>2.8</v>
+        <v>3.0476190476190479</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1620,7 +1629,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I27" s="4">
-        <v>2.7</v>
+        <v>2.8571428571428577</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1649,7 +1658,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I28" s="4">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1678,7 +1687,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I29" s="4">
-        <v>2.8</v>
+        <v>2.9523809523809526</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1707,7 +1716,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I30" s="4">
-        <v>3.1</v>
+        <v>3.1904761904761907</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1736,7 +1745,7 @@
         <v>2E-3</v>
       </c>
       <c r="I31" s="4">
-        <v>2.7</v>
+        <v>3.0476190476190474</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1765,7 +1774,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I32" s="4">
-        <v>2.5</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1794,7 +1803,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="I33" s="4">
-        <v>2.8</v>
+        <v>2.7619047619047623</v>
       </c>
     </row>
   </sheetData>
